--- a/data/dividends_info_20260228.xlsx
+++ b/data/dividends_info_20260228.xlsx
@@ -1632,7 +1632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C347"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2894,14 +2894,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2928,14 +2928,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2945,14 +2945,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2962,14 +2962,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2986,7 +2986,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3003,7 +3003,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3190,7 +3190,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3200,14 +3200,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3234,14 +3234,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3326,7 +3326,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3455,14 +3455,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3479,7 +3479,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3557,14 +3557,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3581,7 +3581,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3615,7 +3615,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3632,7 +3632,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3649,7 +3649,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3659,14 +3659,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3676,14 +3676,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3727,14 +3727,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3751,7 +3751,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3761,14 +3761,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3785,7 +3785,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3795,14 +3795,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>Monnalisa S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3812,14 +3812,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3836,7 +3836,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3853,7 +3853,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3870,7 +3870,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3887,7 +3887,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3897,14 +3897,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3938,7 +3938,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3948,14 +3948,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Monnalisa S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3972,7 +3972,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3999,14 +3999,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4040,7 +4040,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4050,14 +4050,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4084,14 +4084,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4101,14 +4101,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4125,7 +4125,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4135,14 +4135,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4152,14 +4152,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4193,7 +4193,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4227,7 +4227,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4237,14 +4237,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4254,14 +4254,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4278,7 +4278,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4305,14 +4305,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4329,7 +4329,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4346,7 +4346,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4363,7 +4363,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4380,7 +4380,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4390,14 +4390,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4407,14 +4407,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4431,7 +4431,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4441,14 +4441,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4458,14 +4458,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4482,7 +4482,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4499,7 +4499,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4509,14 +4509,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4526,14 +4526,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4550,7 +4550,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4567,7 +4567,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4584,7 +4584,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4594,14 +4594,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4628,14 +4628,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>OPS Italia S.p.A.</t>
+          <t>NEXT RE SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4652,7 +4652,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4662,14 +4662,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4686,7 +4686,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4703,7 +4703,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4720,7 +4720,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4737,7 +4737,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4754,7 +4754,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4764,14 +4764,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>OPS Italia S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>OMER S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4805,7 +4805,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>POWERSOFT S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4822,7 +4822,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4856,7 +4856,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4873,7 +4873,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>POWERSOFT S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ZEST S.p.A.</t>
+          <t>OMER S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4907,7 +4907,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Nusco S.p.A.</t>
+          <t>IREN S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>EXPERT.AI S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4941,7 +4941,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>EuroGroup Laminations S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4951,14 +4951,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>F.I.L.A. S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4975,7 +4975,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>FOPE S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4985,14 +4985,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5009,7 +5009,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>IREN S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5026,7 +5026,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>CLASS EDITORI S.p.A.</t>
+          <t>IMMSI S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>ZEST S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5060,7 +5060,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>IMMSI S.p.A.</t>
+          <t>ENAV S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5077,7 +5077,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Banca Profilo S.p.A.</t>
+          <t>Nusco S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5094,7 +5094,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ENAV S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5104,14 +5104,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>EXPERT.AI S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>EuroGroup Laminations S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5138,14 +5138,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>F.I.L.A. S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5162,7 +5162,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>FOPE S.p.A.</t>
+          <t>Banca Profilo S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5179,7 +5179,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>CLASS EDITORI S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5213,7 +5213,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Softlab S.p.A.</t>
+          <t>Allcore S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5230,7 +5230,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CAIRO COMMUNICATION S.p.A.</t>
+          <t>Braga Moro Sistemi di Energia S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5247,7 +5247,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Cloudia Research S.p.A.</t>
+          <t>Softlab S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>DOTSTAY S.p.A.</t>
+          <t>CAIRO COMMUNICATION S.p.A.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5281,7 +5281,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Egomnia S.p.A.</t>
+          <t>Cloudia Research S.p.A.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5298,7 +5298,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Egomnia S.p.A.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5308,14 +5308,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Franchi Umberto Marmi S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5325,14 +5325,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Growens S.p.A.</t>
+          <t>DOTSTAY S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5349,7 +5349,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>Growens S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5366,7 +5366,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Porto Aviation Group S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5383,7 +5383,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>Franchi Umberto Marmi S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5400,7 +5400,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>RCS MediaGroup S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5417,7 +5417,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RCS MediaGroup S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5427,14 +5427,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Braga Moro Sistemi di Energia S.p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5451,7 +5451,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>Porto Aviation Group S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5461,14 +5461,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Allcore S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5485,7 +5485,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>DANIELI &amp; C. S.p.A.</t>
+          <t>ATON Green Storage S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
+          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5519,7 +5519,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HERA S.p.A.</t>
+          <t>CREACTIVES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5529,14 +5529,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>G.M. Leather S.p.A.</t>
+          <t>Confinvest F.L. S.p.A.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5553,7 +5553,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>FINCANTIERI S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5570,7 +5570,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>rino petino S.p.A.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5587,7 +5587,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Somec S.p.A.</t>
+          <t>eVISO S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5597,14 +5597,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5614,14 +5614,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>eVISO S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>rino petino S.p.A.</t>
+          <t>Somec S.p.A.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5672,7 +5672,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ESI S.p.A.</t>
+          <t>BolognaFiere S.p.A.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5706,7 +5706,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>DANIELI &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5716,14 +5716,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PININFARINA S.p.A.</t>
+          <t>PLC S.p.A.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5740,7 +5740,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>PININFARINA S.p.A.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5757,7 +5757,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PLC S.p.A.</t>
+          <t>Longino &amp; Cardenal S.p.A.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5774,7 +5774,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CREACTIVES GROUP S.p.A.</t>
+          <t>HERA S.p.A.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ATON Green Storage S.p.A.</t>
+          <t>G.M. Leather S.p.A.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
+          <t>FINCANTIERI S.p.A.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5825,7 +5825,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BolognaFiere S.p.A.</t>
+          <t>ESI S.p.A.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Confinvest F.L. S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5859,7 +5859,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>Lindbergh S.p.A.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5886,14 +5886,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>Cogefeed S.p.A.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5910,7 +5910,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Cogefeed S.p.A.</t>
+          <t>SOL S.p.A.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5927,7 +5927,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>KME Group S.p.A.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5937,14 +5937,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Alfonsino S.p.A.</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>Rocket Sharing Company S.p.A.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5995,7 +5995,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Maps S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6005,14 +6005,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SOL S.p.A.</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6029,7 +6029,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Rocket Sharing Company S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>Alfonsino S.p.A.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6056,14 +6056,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RES S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6080,7 +6080,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>Intred S.p.A.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6114,7 +6114,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Lindbergh S.p.A.</t>
+          <t>Maps S.p.A.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6131,7 +6131,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Next Geosolutions Europe S.p.A.</t>
+          <t>ISCC FINTECH S.p.A.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6148,7 +6148,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>Grifal S.p.A.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6158,14 +6158,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Intred S.p.A.</t>
+          <t>Giglio.com S.p.A.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6182,7 +6182,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>GVS S.p.A.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6192,14 +6192,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ISCC FINTECH S.p.A.</t>
+          <t>Finanza.tech S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Grifal S.p.A.</t>
+          <t>RES S.p.A.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6233,7 +6233,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Giglio.com S.p.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6250,7 +6250,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>GVS S.p.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6260,14 +6260,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Industrie Chimiche Forestali S.p.A.</t>
+          <t>ENA S.p.A.</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6284,7 +6284,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Finanza.tech S.p.A. Società Benefit</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6294,14 +6294,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>Next Geosolutions Europe S.p.A.</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6328,14 +6328,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>KME Group S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6345,14 +6345,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ENA S.p.A.</t>
+          <t>Industrie Chimiche Forestali S.p.A.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6369,7 +6369,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>UCapital24 S.p.A.</t>
+          <t>Bellini Nautica S.p.A.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6386,7 +6386,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>International Care Company S.p.A.</t>
+          <t>Arterra Bioscience S.p.A.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6403,7 +6403,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Iniziative Bresciane - INBRE - S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Copernico SIM S.p.A.</t>
+          <t>Iniziative Bresciane - INBRE - S.p.A.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6437,7 +6437,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>DEODATO.GALLERY S.p.A.</t>
+          <t>International Care Company S.p.A.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6454,7 +6454,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>DESTINATION ITALIA S.p.A.</t>
+          <t>Italian Wine Brands S.p.A.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6471,7 +6471,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>EDILIZIACROBATICA S.p.A.</t>
+          <t>PREMIA FINANCE S.P.A</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6488,7 +6488,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>PHILOGEN S.p.A.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6505,7 +6505,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ESAUTOMOTION S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6515,14 +6515,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Energy S.p.A.</t>
+          <t>Metriks AI S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6539,7 +6539,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Italian Wine Brands S.p.A.</t>
+          <t>Magis S.p.A.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6556,7 +6556,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Vimi Fasteners S.p.A.</t>
+          <t>MARZOCCHI POMPE S.p.A.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6573,7 +6573,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>Lemon Sistemi S.p.A.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6583,14 +6583,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Yakkyo S.p.A.</t>
+          <t>Riba Mundo Tecnologia S.A.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6607,7 +6607,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SG COMPANY SOCIETÀ BENEFIT S.p.A.</t>
+          <t>VINEXT S.p.A.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6624,7 +6624,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>VINEXT S.p.A.</t>
+          <t>TradeLab S.p.A.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6641,7 +6641,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SOSTRAVEL.COM S.p.A.</t>
+          <t>Telmes S.p.A.</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6658,7 +6658,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>YOLO GROUP S.p.A.</t>
+          <t>Smart Capital S.p.A.</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6675,7 +6675,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Smart Capital S.p.A.</t>
+          <t>Saccheria F.lli Franceschetti S.p.A.</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6692,7 +6692,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Telmes S.p.A.</t>
+          <t>SOSTRAVEL.COM S.p.A.</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>TradeLab S.p.A.</t>
+          <t>SOGES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6726,7 +6726,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Saccheria F.lli Franceschetti S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6736,14 +6736,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>SG COMPANY SOCIETÀ BENEFIT S.p.A.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6760,7 +6760,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Bellini Nautica S.p.A.</t>
+          <t>UCapital24 S.p.A.</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6777,7 +6777,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Arterra Bioscience S.p.A.</t>
+          <t>SBE-Varvit S.p.A.</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6794,7 +6794,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SOGES GROUP S.p.A.</t>
+          <t>Praexidia Industrie Strategiche S.p.A.</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6811,12 +6811,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>COFLE S.p.A.</t>
+          <t>DEODATO.GALLERY S.p.A.</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6828,12 +6828,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BFF Bank S.P.A.</t>
+          <t>YOLO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6845,29 +6845,29 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PROMOTICA S.p.A.</t>
+          <t>DESTINATION ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AATECH S.p.A. Società Benefit</t>
+          <t>EDILIZIACROBATICA S.p.A.</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6879,12 +6879,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Ambromobiliare S.p.A.</t>
+          <t>ELES S.p.A.</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6896,12 +6896,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ACQUAZZURRA S.p.A.</t>
+          <t>ESAUTOMOTION S.p.A.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6913,29 +6913,29 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A.B.P. Nocivelli S.p.A.</t>
+          <t>Energy S.p.A.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Pasquarelli Auto S.p.A.</t>
+          <t>Yakkyo S.p.A.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6947,12 +6947,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ABC Company S.p.A. Società Benefit</t>
+          <t>Vimi Fasteners S.p.A.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -6964,12 +6964,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PLANETEL S.p.A.</t>
+          <t>Copernico SIM S.p.A.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -6981,7 +6981,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ErreDue S.p.A.</t>
+          <t>INNOVATEC S.p.A.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6998,7 +6998,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>KALEON S.P.A.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7008,14 +7008,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>RedFish LongTerm Capital S.p.A.</t>
+          <t>Laboratorio Farmaceutico Erfo S.p.A.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7032,7 +7032,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Redelfi S.p.A.</t>
+          <t>Leone Film Group S.p.A.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7049,7 +7049,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>T.P.S. S.p.A.</t>
+          <t>Litix S.p.A.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7066,7 +7066,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Tenax International S.p.A.</t>
+          <t>MIT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7083,7 +7083,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>doxee S.p.A.</t>
+          <t>MONDO TV FRANCE</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7100,7 +7100,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>iVision Tech S.p.A.</t>
+          <t>ILPRA S.p.A.</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7117,7 +7117,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Energy S.p.A.</t>
+          <t>Distribuzione Elettrica Adriatica S.p.A.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7127,14 +7127,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Emma Villas S.p.A.</t>
+          <t>COFLE S.p.A.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7151,7 +7151,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>EdgeLab S.p.A.</t>
+          <t>Markbass S.p.A.</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>EUKEDOS S.p.A.</t>
+          <t>Gentili Mosconi S.p.A.</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7185,7 +7185,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>EDISON S.p.A.</t>
+          <t>HEALTH ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7195,14 +7195,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>E.T.S. S.p.A. Engineering and Technical Services</t>
+          <t>Energy Time S.p.A.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7219,7 +7219,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>E-Globe S.p.A.</t>
+          <t>ErreDue S.p.A.</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7236,7 +7236,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>Estrima S.p.A.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7253,7 +7253,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>CONVERGENZE S.p.A. SOCIETA' BENEFIT</t>
+          <t>FRANCHETTI S.p.A.</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7270,7 +7270,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>HEALTH ITALIA S.p.A.</t>
+          <t>Farmacosmo S.p.A.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7287,7 +7287,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Gentili Mosconi S.p.A.</t>
+          <t>First Capital S.p.A.</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7304,7 +7304,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>GREEN OLEO S.p.A</t>
+          <t>GPI S.p.A.</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7321,7 +7321,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>GPI S.p.A.</t>
+          <t>Haiki+ S.p.A.</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7338,7 +7338,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>First Capital S.p.A.</t>
+          <t>RedFish LongTerm Capital S.p.A.</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7355,7 +7355,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Farmacosmo S.p.A.</t>
+          <t>T.P.S. S.p.A.</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7372,7 +7372,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>FRANCHETTI S.p.A.</t>
+          <t>Datrix S.p.A.</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7389,7 +7389,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Estrima S.p.A.</t>
+          <t>E-Globe S.p.A.</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7406,7 +7406,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Energy Time S.p.A.</t>
+          <t>E.T.S. S.p.A. Engineering and Technical Services</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Otofarma S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7518,14 +7518,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Distribuzione Elettrica Adriatica S.p.A.</t>
+          <t>Otofarma S.p.A.</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7534,6 +7534,346 @@
         </is>
       </c>
       <c r="C347" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>PLANETEL S.p.A.</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>PROMOTICA S.p.A.</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Pasquarelli Auto S.p.A.</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>EDISON S.p.A.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Annual General Meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>EUKEDOS S.p.A.</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>EdgeLab S.p.A.</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Emma Villas S.p.A.</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Energy S.p.A.</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>CONVERGENZE S.p.A. SOCIETA' BENEFIT</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>A.B.P. Nocivelli S.p.A.</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Half Year Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>AATECH S.p.A. Società Benefit</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>ABC Company S.p.A. Società Benefit</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ACQUAZZURRA S.p.A.</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Ambromobiliare S.p.A.</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>BFF Bank S.P.A.</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>iVision Tech S.p.A.</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>doxee S.p.A.</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Tenax International S.p.A.</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Redelfi S.p.A.</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>GREEN OLEO S.p.A</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2026-03-30</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
         <is>
           <t>Bod Annual Report</t>
         </is>
@@ -7568,7 +7908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7596,7 +7936,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A.B.P. Nocivelli S.p.A.</t>
+          <t>Haiki+ S.p.A.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7606,14 +7946,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AATECH S.p.A. Società Benefit</t>
+          <t>ILPRA S.p.A.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7630,7 +7970,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABC Company S.p.A. Società Benefit</t>
+          <t>INNOVATEC S.p.A.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7647,7 +7987,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACQUAZZURRA S.p.A.</t>
+          <t>KALEON S.P.A.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7664,7 +8004,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ambromobiliare S.p.A.</t>
+          <t>Laboratorio Farmaceutico Erfo S.p.A.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7681,7 +8021,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BFF Bank S.P.A.</t>
+          <t>Leone Film Group S.p.A.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7698,7 +8038,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COFLE S.p.A.</t>
+          <t>Litix S.p.A.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7715,7 +8055,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CONVERGENZE S.p.A. SOCIETA' BENEFIT</t>
+          <t>MIT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7732,7 +8072,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>MONDO TV FRANCE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7749,7 +8089,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Distribuzione Elettrica Adriatica S.p.A.</t>
+          <t>Markbass S.p.A.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7758,567 +8098,6 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>E-Globe S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>E.T.S. S.p.A. Engineering and Technical Services</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EDISON S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Annual General Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EUKEDOS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EdgeLab S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Emma Villas S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Energy S.p.A.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Energy Time S.p.A.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ErreDue S.p.A.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Estrima S.p.A.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>FRANCHETTI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Farmacosmo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>First Capital S.p.A.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GPI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GREEN OLEO S.p.A</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Gentili Mosconi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HEALTH ITALIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>NEWPRINCES</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NOTORIOUS PICTURES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Novamarine S.p.A.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OLIDATA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>OSAI Automation System S.p.A.</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>OSAI Automation System S.p.A.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Otofarma S.p.A.</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PLANETEL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PROMOTICA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Pasquarelli Auto S.p.A.</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RedFish LongTerm Capital S.p.A.</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Redelfi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>T.P.S. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tenax International S.p.A.</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>doxee S.p.A.</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>iVision Tech S.p.A.</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2026-03-30</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>Bod Annual Report</t>
         </is>
